--- a/De Jesús Orduña Sofía del Pilar 20212.xlsx
+++ b/De Jesús Orduña Sofía del Pilar 20212.xlsx
@@ -2035,7 +2035,7 @@
         <v>116</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">

--- a/De Jesús Orduña Sofía del Pilar 20212.xlsx
+++ b/De Jesús Orduña Sofía del Pilar 20212.xlsx
@@ -197,979 +197,979 @@
     <t>ALEXANDER</t>
   </si>
   <si>
+    <t>DARLET VICTORIA</t>
+  </si>
+  <si>
+    <t>CRISTIAN MANUEL</t>
+  </si>
+  <si>
+    <t>JONATHAN MOISES</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>JOSELIN</t>
+  </si>
+  <si>
+    <t>JOCELIN</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>ANGEL DE JESUS</t>
+  </si>
+  <si>
+    <t>LUZ AMELY</t>
+  </si>
+  <si>
+    <t>SAORI</t>
+  </si>
+  <si>
+    <t>ISAAC</t>
+  </si>
+  <si>
+    <t>AMIR ALONSO</t>
+  </si>
+  <si>
+    <t>GEMMA MARIA</t>
+  </si>
+  <si>
+    <t>EYTHAN</t>
+  </si>
+  <si>
+    <t>NOEMI</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>PAULA MARIA</t>
+  </si>
+  <si>
+    <t>maryabad324@gmail.com</t>
+  </si>
+  <si>
+    <t>maribelsol2711@gmail.com</t>
+  </si>
+  <si>
+    <t>gatinas1369@gmail.com</t>
+  </si>
+  <si>
+    <t>sanrome2988@gmail.com</t>
+  </si>
+  <si>
+    <t>nahomicastroarias@gmail.com</t>
+  </si>
+  <si>
+    <t>gaelcamposlopez575@gmail.com</t>
+  </si>
+  <si>
+    <t>yaircamposlopez@gmail.com</t>
+  </si>
+  <si>
+    <t>cristinakarelysanchez@gmail.com</t>
+  </si>
+  <si>
+    <t>garaydelgado80@gmail.com</t>
+  </si>
+  <si>
+    <t>darletvictoriagarciarodriguez@gmail.com</t>
+  </si>
+  <si>
+    <t>manuelcmhl@gmail.com</t>
+  </si>
+  <si>
+    <t>norberta123flores0987@gmail.com</t>
+  </si>
+  <si>
+    <t>Primaverareyes77@gmail.com</t>
+  </si>
+  <si>
+    <t>joselinixmatlahuahernandez@gmail.com</t>
+  </si>
+  <si>
+    <t>LIZBETH.CASTILL.1217@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>lunaantonio15ctc@gmail.com</t>
+  </si>
+  <si>
+    <t>samantaperez0708@gmail.com</t>
+  </si>
+  <si>
+    <t>luzamely0913@gmail.com</t>
+  </si>
+  <si>
+    <t>saoripliegohipolito@gmail.com</t>
+  </si>
+  <si>
+    <t>isaacramdom1906@gmail.com</t>
+  </si>
+  <si>
+    <t>reyesmartinezjoselin766@gmail.com</t>
+  </si>
+  <si>
+    <t>alonsorico93303@gmail.com</t>
+  </si>
+  <si>
+    <t>alejandra.rod.alv24@gmail.com</t>
+  </si>
+  <si>
+    <t>mrtz.047@gmail.com</t>
+  </si>
+  <si>
+    <t>noemisanchez0401@gmail.com</t>
+  </si>
+  <si>
+    <t>alevillegas024@gmail.com</t>
+  </si>
+  <si>
+    <t>normaxocuazepahua1@gmail.com</t>
+  </si>
+  <si>
+    <t>2727212633</t>
+  </si>
+  <si>
+    <t>2721060814</t>
+  </si>
+  <si>
+    <t>2722197033</t>
+  </si>
+  <si>
+    <t>2721393297</t>
+  </si>
+  <si>
+    <t>2721908057</t>
+  </si>
+  <si>
+    <t>2727829198</t>
+  </si>
+  <si>
+    <t>2727278270</t>
+  </si>
+  <si>
+    <t>2721200463</t>
+  </si>
+  <si>
+    <t>2727212047</t>
+  </si>
+  <si>
+    <t>2721235233</t>
+  </si>
+  <si>
+    <t>2722824477</t>
+  </si>
+  <si>
+    <t>2722047283</t>
+  </si>
+  <si>
+    <t>2712459471</t>
+  </si>
+  <si>
+    <t>2721209768</t>
+  </si>
+  <si>
+    <t>2721289212</t>
+  </si>
+  <si>
+    <t>2722068540</t>
+  </si>
+  <si>
+    <t>2722620979</t>
+  </si>
+  <si>
+    <t>2722050811</t>
+  </si>
+  <si>
+    <t>2722112726</t>
+  </si>
+  <si>
+    <t>2722868986</t>
+  </si>
+  <si>
+    <t>2722244793</t>
+  </si>
+  <si>
+    <t>2722463841</t>
+  </si>
+  <si>
+    <t>2722457864</t>
+  </si>
+  <si>
+    <t>2721954424</t>
+  </si>
+  <si>
+    <t>2721614805</t>
+  </si>
+  <si>
+    <t>2722967332</t>
+  </si>
+  <si>
+    <t>2721889790</t>
+  </si>
+  <si>
+    <t>2722017264</t>
+  </si>
+  <si>
+    <t>2722217264</t>
+  </si>
+  <si>
+    <t>2722844089</t>
+  </si>
+  <si>
+    <t>2721060576</t>
+  </si>
+  <si>
+    <t>2711036218</t>
+  </si>
+  <si>
+    <t>2722198132</t>
+  </si>
+  <si>
+    <t>2721214226</t>
+  </si>
+  <si>
+    <t>2722014397</t>
+  </si>
+  <si>
+    <t>2721306767</t>
+  </si>
+  <si>
+    <t>2721711462</t>
+  </si>
+  <si>
+    <t>2722605687</t>
+  </si>
+  <si>
+    <t>2721060853</t>
+  </si>
+  <si>
+    <t>2721151049</t>
+  </si>
+  <si>
+    <t>BLANCA ANTONIA SANTIAGO SANTIAGO</t>
+  </si>
+  <si>
+    <t>MARIBEL SOL MORALES</t>
+  </si>
+  <si>
+    <t>NOHEMI BAUTISTA APARICIO</t>
+  </si>
+  <si>
+    <t>LUZ MARÍA NERI RICO</t>
+  </si>
+  <si>
+    <t>MAYRA ROCIO ARIAS GARCIA</t>
+  </si>
+  <si>
+    <t>VERÓNICA LÓPEZ ARGUELLO</t>
+  </si>
+  <si>
+    <t>VERONICA LOPEZ ARGÜELLO</t>
+  </si>
+  <si>
+    <t>ELSA EDITH SÁNCHEZ HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>JACQUELIN DELGADO POLITO</t>
+  </si>
+  <si>
+    <t>RUTH BAUTISTA APARICIO</t>
+  </si>
+  <si>
+    <t>ANGEL NURIEL HERNANDEZ LOPEZ</t>
+  </si>
+  <si>
+    <t>NORBERTA FLORES FRIAS</t>
+  </si>
+  <si>
+    <t>F. ESTEFANÍA REYES BALTAZAR</t>
+  </si>
+  <si>
+    <t>MARCELINA IXMATLAHUA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LIZBETH LOPEZ CASTILLO</t>
+  </si>
+  <si>
+    <t>CECILIA GONZALEZ RAMIREZ</t>
+  </si>
+  <si>
+    <t>ERIKA MONSERRATH JUAREZ SILVA</t>
+  </si>
+  <si>
+    <t>CECILIA VELASCO RAMIREZ</t>
+  </si>
+  <si>
+    <t>ABRAHAM SILVIANO PLIEGO RAMIREZ</t>
+  </si>
+  <si>
+    <t>GUADALUPE DOMÍNGUEZ GONZÁLEZ</t>
+  </si>
+  <si>
+    <t>ANTONINA REYES MARTINEZ</t>
+  </si>
+  <si>
+    <t>LILIA MARTÍNEZ VÁZQUEZ MARTÍNEZ RICO</t>
+  </si>
+  <si>
+    <t>ALEJANDRA TERESA RODRIGUEZ ALVAREZ</t>
+  </si>
+  <si>
+    <t>MARINA MARTINEZ MEJIA</t>
+  </si>
+  <si>
+    <t>GABRIELA CASTELLANOS FLORES</t>
+  </si>
+  <si>
+    <t>ALEJANDRO VILLEGAS HERRERA</t>
+  </si>
+  <si>
+    <t>NORMA XOCUA ZEPAHUA</t>
+  </si>
+  <si>
+    <t>luzmarianeri256@gmail.com</t>
+  </si>
+  <si>
+    <t>may26397@gmail.com</t>
+  </si>
+  <si>
+    <t>veyaga1983@gmail.com</t>
+  </si>
+  <si>
+    <t>edithsadhernadz@gmail.com</t>
+  </si>
+  <si>
+    <t>jack-ye@live.com.mx</t>
+  </si>
+  <si>
+    <t>norberta123flores0987@gmail.</t>
+  </si>
+  <si>
+    <t>mg5863379@gmail.com</t>
+  </si>
+  <si>
+    <t>gonzalezctc@icloud.com</t>
+  </si>
+  <si>
+    <t>baby29051@hotmail.com</t>
+  </si>
+  <si>
+    <t>fabys1984@hotmail.com</t>
+  </si>
+  <si>
+    <t>guadalupe16101@gmail.com</t>
+  </si>
+  <si>
+    <t>amiralonsorm12@gmail.com</t>
+  </si>
+  <si>
+    <t>gavryela46@gmail.com</t>
+  </si>
+  <si>
+    <t>alevillegas@gmail.com</t>
+  </si>
+  <si>
+    <t>2721066128</t>
+  </si>
+  <si>
+    <t>2721530852</t>
+  </si>
+  <si>
+    <t>2721280070</t>
+  </si>
+  <si>
+    <t>2727225083</t>
+  </si>
+  <si>
+    <t>2723353645</t>
+  </si>
+  <si>
+    <t>2721753370</t>
+  </si>
+  <si>
+    <t>2721750959</t>
+  </si>
+  <si>
+    <t>2727839804</t>
+  </si>
+  <si>
+    <t>2711036278</t>
+  </si>
+  <si>
+    <t>2722149982</t>
+  </si>
+  <si>
+    <t>2722600971</t>
+  </si>
+  <si>
+    <t>2721876884</t>
+  </si>
+  <si>
+    <t>2721302392</t>
+  </si>
+  <si>
+    <t>2721000993</t>
+  </si>
+  <si>
+    <t>2721541486</t>
+  </si>
+  <si>
+    <t>2721733764</t>
+  </si>
+  <si>
+    <t>2721585385</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>ENCARNACION</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>LIBRADO</t>
+  </si>
+  <si>
+    <t>MARIN</t>
+  </si>
+  <si>
+    <t>MONT</t>
+  </si>
+  <si>
+    <t>MONTIEL</t>
+  </si>
+  <si>
+    <t>MOSTRANZO</t>
+  </si>
+  <si>
+    <t>QUERO</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>GARNICA</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>MONTALVO</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>CAPORAL</t>
+  </si>
+  <si>
+    <t>CORONADO</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>OCHOA</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>TLAXCALTECA</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>KAREN ITZEL</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>SAMANTHA MIA</t>
+  </si>
+  <si>
+    <t>MARIA JOSE</t>
+  </si>
+  <si>
+    <t>DIEGO DE JESUS</t>
+  </si>
+  <si>
+    <t>MARILYN</t>
+  </si>
+  <si>
+    <t>DIANA IRAIS</t>
+  </si>
+  <si>
+    <t>GAEL</t>
+  </si>
+  <si>
     <t>NATALIE</t>
   </si>
   <si>
-    <t>DARLET VICTORIA</t>
-  </si>
-  <si>
-    <t>CRISTIAN MANUEL</t>
-  </si>
-  <si>
-    <t>JONATHAN MOISES</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
-    <t>JOSELIN</t>
-  </si>
-  <si>
-    <t>JOCELIN</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>ANGEL DE JESUS</t>
-  </si>
-  <si>
-    <t>LUZ AMELY</t>
-  </si>
-  <si>
-    <t>SAORI</t>
-  </si>
-  <si>
-    <t>ISAAC</t>
-  </si>
-  <si>
-    <t>AMIR ALONSO</t>
-  </si>
-  <si>
-    <t>GEMMA MARIA</t>
-  </si>
-  <si>
-    <t>EYTHAN</t>
-  </si>
-  <si>
-    <t>NOEMI</t>
-  </si>
-  <si>
-    <t>ABIGAIL</t>
-  </si>
-  <si>
-    <t>PAULA MARIA</t>
-  </si>
-  <si>
-    <t>maryabad324@gmail.com</t>
-  </si>
-  <si>
-    <t>maribelsol2711@gmail.com</t>
-  </si>
-  <si>
-    <t>gatinas1369@gmail.com</t>
-  </si>
-  <si>
-    <t>sanrome2988@gmail.com</t>
-  </si>
-  <si>
-    <t>nahomicastroarias@gmail.com</t>
-  </si>
-  <si>
-    <t>gaelcamposlopez575@gmail.com</t>
-  </si>
-  <si>
-    <t>yaircamposlopez@gmail.com</t>
-  </si>
-  <si>
-    <t>cristinakarelysanchez@gmail.com</t>
-  </si>
-  <si>
-    <t>garaydelgado80@gmail.com</t>
+    <t>CRISTIAN FERMIN</t>
+  </si>
+  <si>
+    <t>LOGAN FRANCISCO</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>LIZBETH</t>
+  </si>
+  <si>
+    <t>MARCOS JESUS</t>
+  </si>
+  <si>
+    <t>ZABDIEL</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>PAUL ADRIAN</t>
+  </si>
+  <si>
+    <t>IKER XAVIER</t>
+  </si>
+  <si>
+    <t>THANIA CRISTAL</t>
+  </si>
+  <si>
+    <t>DANIEL OCTAVIO</t>
+  </si>
+  <si>
+    <t>EDWIN YAMIL</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>GABRIELA DENISSE</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>CESAR DANIEL</t>
+  </si>
+  <si>
+    <t>MELANY NARAYANA</t>
+  </si>
+  <si>
+    <t>maricelamartinez99826@gmail.com</t>
+  </si>
+  <si>
+    <t>diego123cast456@gmail.com</t>
+  </si>
+  <si>
+    <t>samanthahernandezcer@gmail.com</t>
+  </si>
+  <si>
+    <t>majoceronb612@gmail.com</t>
+  </si>
+  <si>
+    <t>dcruzgarnica.07@gmail.com</t>
+  </si>
+  <si>
+    <t>marilyndominguezmarcelino@gmail.com</t>
+  </si>
+  <si>
+    <t>iraisencarnacion1@gmail.com</t>
+  </si>
+  <si>
+    <t>die12flo@gmail.com</t>
+  </si>
+  <si>
+    <t>gg7760448@gmail.com</t>
   </si>
   <si>
     <t>natigap48@gmail.com</t>
   </si>
   <si>
-    <t>darletvictoriagarciarodriguez@gmail.com</t>
-  </si>
-  <si>
-    <t>manuelcmhl@gmail.com</t>
-  </si>
-  <si>
-    <t>norberta123flores0987@gmail.com</t>
-  </si>
-  <si>
-    <t>Primaverareyes77@gmail.com</t>
-  </si>
-  <si>
-    <t>joselinixmatlahuahernandez@gmail.com</t>
-  </si>
-  <si>
-    <t>LIZBETH.CASTILL.1217@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>lunaantonio15ctc@gmail.com</t>
-  </si>
-  <si>
-    <t>samantaperez0708@gmail.com</t>
-  </si>
-  <si>
-    <t>luzamely0913@gmail.com</t>
-  </si>
-  <si>
-    <t>saoripliegohipolito@gmail.com</t>
-  </si>
-  <si>
-    <t>isaacramdom1906@gmail.com</t>
-  </si>
-  <si>
-    <t>reyesmartinezjoselin766@gmail.com</t>
-  </si>
-  <si>
-    <t>alonsorico93303@gmail.com</t>
-  </si>
-  <si>
-    <t>alejandra.rod.alv24@gmail.com</t>
-  </si>
-  <si>
-    <t>mrtz.047@gmail.com</t>
-  </si>
-  <si>
-    <t>noemisanchez0401@gmail.com</t>
-  </si>
-  <si>
-    <t>alevillegas024@gmail.com</t>
-  </si>
-  <si>
-    <t>normaxocuazepahua1@gmail.com</t>
-  </si>
-  <si>
-    <t>2727212633</t>
-  </si>
-  <si>
-    <t>2721060814</t>
-  </si>
-  <si>
-    <t>2722197033</t>
-  </si>
-  <si>
-    <t>2721393297</t>
-  </si>
-  <si>
-    <t>2721908057</t>
-  </si>
-  <si>
-    <t>2727829198</t>
-  </si>
-  <si>
-    <t>2727278270</t>
-  </si>
-  <si>
-    <t>2721200463</t>
+    <t>joseigmo90@hotmail.com</t>
+  </si>
+  <si>
+    <t>logan280405@hotmail.com</t>
+  </si>
+  <si>
+    <t>silvanohernandez0011@gmail.com</t>
+  </si>
+  <si>
+    <t>libradolizbeth3@gmail.com</t>
+  </si>
+  <si>
+    <t>lunamariamarcosjesus48@gmail.com</t>
+  </si>
+  <si>
+    <t>mzabdiel519@gmail.com</t>
+  </si>
+  <si>
+    <t>rlucrecia676@gmail.com</t>
+  </si>
+  <si>
+    <t>pauladrianmont633@gmail.com</t>
+  </si>
+  <si>
+    <t>alyxamonti.98@gmail.com</t>
+  </si>
+  <si>
+    <t>min296579@gmail.com</t>
+  </si>
+  <si>
+    <t>asuncast1508@hotmail.com</t>
+  </si>
+  <si>
+    <t>florserrano984@gmail.com</t>
+  </si>
+  <si>
+    <t>ramosfati68@gmail.com</t>
+  </si>
+  <si>
+    <t>marianareyes031202@gmail.com</t>
+  </si>
+  <si>
+    <t>gabideniss07@gmail.com</t>
+  </si>
+  <si>
+    <t>mariadelcarmentrujillo1607@gmail.com</t>
+  </si>
+  <si>
+    <t>anagabrielamontielaguilar@gmail.com</t>
+  </si>
+  <si>
+    <t>melaniex0814@gmail.com</t>
+  </si>
+  <si>
+    <t>2722111112</t>
+  </si>
+  <si>
+    <t>2722455801</t>
+  </si>
+  <si>
+    <t>2721697190</t>
+  </si>
+  <si>
+    <t>2722252713</t>
+  </si>
+  <si>
+    <t>7731368044</t>
+  </si>
+  <si>
+    <t>2721970646</t>
+  </si>
+  <si>
+    <t>2722110064</t>
+  </si>
+  <si>
+    <t>2721917796</t>
   </si>
   <si>
     <t>2722018659</t>
   </si>
   <si>
-    <t>2727212047</t>
-  </si>
-  <si>
-    <t>2721235233</t>
-  </si>
-  <si>
-    <t>2722824477</t>
-  </si>
-  <si>
-    <t>2722047283</t>
-  </si>
-  <si>
-    <t>2712459471</t>
-  </si>
-  <si>
-    <t>2721209768</t>
-  </si>
-  <si>
-    <t>2721289212</t>
-  </si>
-  <si>
-    <t>2722068540</t>
-  </si>
-  <si>
-    <t>2722620979</t>
-  </si>
-  <si>
-    <t>2722050811</t>
-  </si>
-  <si>
-    <t>2722112726</t>
-  </si>
-  <si>
-    <t>2722868986</t>
-  </si>
-  <si>
-    <t>2722244793</t>
-  </si>
-  <si>
-    <t>2722463841</t>
-  </si>
-  <si>
-    <t>2722457864</t>
-  </si>
-  <si>
-    <t>2721954424</t>
-  </si>
-  <si>
-    <t>2721614805</t>
-  </si>
-  <si>
-    <t>2722967332</t>
-  </si>
-  <si>
-    <t>2721889790</t>
-  </si>
-  <si>
-    <t>2722017264</t>
-  </si>
-  <si>
-    <t>2722217264</t>
-  </si>
-  <si>
-    <t>2722844089</t>
-  </si>
-  <si>
-    <t>2721060576</t>
+    <t>2721092960</t>
+  </si>
+  <si>
+    <t>2722305796</t>
+  </si>
+  <si>
+    <t>2722819551</t>
+  </si>
+  <si>
+    <t>2722193643</t>
+  </si>
+  <si>
+    <t>2727016334</t>
+  </si>
+  <si>
+    <t>2722835620</t>
+  </si>
+  <si>
+    <t>2721060211</t>
+  </si>
+  <si>
+    <t>2722031552</t>
+  </si>
+  <si>
+    <t>2225185683</t>
+  </si>
+  <si>
+    <t>2722335321</t>
+  </si>
+  <si>
+    <t>2723033654</t>
+  </si>
+  <si>
+    <t>2721981105</t>
+  </si>
+  <si>
+    <t>2722626380</t>
+  </si>
+  <si>
+    <t>2723560444</t>
+  </si>
+  <si>
+    <t>2723352208</t>
+  </si>
+  <si>
+    <t>2722823423</t>
+  </si>
+  <si>
+    <t>2723357672</t>
+  </si>
+  <si>
+    <t>2723034076</t>
+  </si>
+  <si>
+    <t>2722285437</t>
+  </si>
+  <si>
+    <t>2722174419</t>
+  </si>
+  <si>
+    <t>2721713031</t>
+  </si>
+  <si>
+    <t>2722264241</t>
+  </si>
+  <si>
+    <t>2722605467</t>
   </si>
   <si>
     <t>2721443309</t>
   </si>
   <si>
-    <t>2711036218</t>
-  </si>
-  <si>
-    <t>2722198132</t>
-  </si>
-  <si>
-    <t>2721214226</t>
-  </si>
-  <si>
-    <t>2722014397</t>
-  </si>
-  <si>
-    <t>2721306767</t>
-  </si>
-  <si>
-    <t>2721711462</t>
-  </si>
-  <si>
-    <t>2722605687</t>
-  </si>
-  <si>
-    <t>2721060853</t>
-  </si>
-  <si>
-    <t>2721151049</t>
-  </si>
-  <si>
-    <t>BLANCA ANTONIA SANTIAGO SANTIAGO</t>
-  </si>
-  <si>
-    <t>MARIBEL SOL MORALES</t>
-  </si>
-  <si>
-    <t>NOHEMI BAUTISTA APARICIO</t>
-  </si>
-  <si>
-    <t>LUZ MARÍA NERI RICO</t>
-  </si>
-  <si>
-    <t>MAYRA ROCIO ARIAS GARCIA</t>
-  </si>
-  <si>
-    <t>VERÓNICA LÓPEZ ARGUELLO</t>
-  </si>
-  <si>
-    <t>VERONICA LOPEZ ARGÜELLO</t>
-  </si>
-  <si>
-    <t>ELSA EDITH SÁNCHEZ HERNÁNDEZ</t>
-  </si>
-  <si>
-    <t>JACQUELIN DELGADO POLITO</t>
+    <t>2721710203</t>
+  </si>
+  <si>
+    <t>2721330710</t>
+  </si>
+  <si>
+    <t>2721060807</t>
+  </si>
+  <si>
+    <t>2721682361</t>
+  </si>
+  <si>
+    <t>2727210370</t>
+  </si>
+  <si>
+    <t>2722018661</t>
+  </si>
+  <si>
+    <t>2721712088</t>
+  </si>
+  <si>
+    <t>ANDRES BARRAGAN SANTOS</t>
+  </si>
+  <si>
+    <t>MARIA RAMÍREZ RAMÍREZ</t>
+  </si>
+  <si>
+    <t>EUSTOLIA HERNANDEZ SUAREZ</t>
+  </si>
+  <si>
+    <t>ROSA TZOMPAXTLE CERÓN</t>
+  </si>
+  <si>
+    <t>GLORIA PINEDA GARCÍA</t>
+  </si>
+  <si>
+    <t>LUZ VIANNEY MARCELINO VAZQUEZ</t>
+  </si>
+  <si>
+    <t>GLADIS ALEJANDRA MONTAVO CHACÓN</t>
+  </si>
+  <si>
+    <t>SARA VILLA LUNA</t>
+  </si>
+  <si>
+    <t>MARÍA DE JESÚS GONZÁLEZ TAPÍA</t>
   </si>
   <si>
     <t>KARINA GUADALUPE PEREZ SAN JUAN</t>
   </si>
   <si>
-    <t>RUTH BAUTISTA APARICIO</t>
-  </si>
-  <si>
-    <t>ANGEL NURIEL HERNANDEZ LOPEZ</t>
-  </si>
-  <si>
-    <t>NORBERTA FLORES FRIAS</t>
-  </si>
-  <si>
-    <t>F. ESTEFANÍA REYES BALTAZAR</t>
-  </si>
-  <si>
-    <t>MARCELINA IXMATLAHUA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LIZBETH LOPEZ CASTILLO</t>
-  </si>
-  <si>
-    <t>CECILIA GONZALEZ RAMIREZ</t>
-  </si>
-  <si>
-    <t>ERIKA MONSERRATH JUAREZ SILVA</t>
-  </si>
-  <si>
-    <t>CECILIA VELASCO RAMIREZ</t>
-  </si>
-  <si>
-    <t>ABRAHAM SILVIANO PLIEGO RAMIREZ</t>
-  </si>
-  <si>
-    <t>GUADALUPE DOMÍNGUEZ GONZÁLEZ</t>
-  </si>
-  <si>
-    <t>ANTONINA REYES MARTINEZ</t>
-  </si>
-  <si>
-    <t>LILIA MARTÍNEZ VÁZQUEZ MARTÍNEZ RICO</t>
-  </si>
-  <si>
-    <t>ALEJANDRA TERESA RODRIGUEZ ALVAREZ</t>
-  </si>
-  <si>
-    <t>MARINA MARTINEZ MEJIA</t>
-  </si>
-  <si>
-    <t>GABRIELA CASTELLANOS FLORES</t>
-  </si>
-  <si>
-    <t>ALEJANDRO VILLEGAS HERRERA</t>
-  </si>
-  <si>
-    <t>NORMA XOCUA ZEPAHUA</t>
-  </si>
-  <si>
-    <t>luzmarianeri256@gmail.com</t>
-  </si>
-  <si>
-    <t>may26397@gmail.com</t>
-  </si>
-  <si>
-    <t>veyaga1983@gmail.com</t>
-  </si>
-  <si>
-    <t>edithsadhernadz@gmail.com</t>
-  </si>
-  <si>
-    <t>jack-ye@live.com.mx</t>
-  </si>
-  <si>
-    <t>norberta123flores0987@gmail.</t>
-  </si>
-  <si>
-    <t>mg5863379@gmail.com</t>
-  </si>
-  <si>
-    <t>gonzalezctc@icloud.com</t>
-  </si>
-  <si>
-    <t>baby29051@hotmail.com</t>
-  </si>
-  <si>
-    <t>fabys1984@hotmail.com</t>
-  </si>
-  <si>
-    <t>guadalupe16101@gmail.com</t>
-  </si>
-  <si>
-    <t>amiralonsorm12@gmail.com</t>
-  </si>
-  <si>
-    <t>gavryela46@gmail.com</t>
-  </si>
-  <si>
-    <t>alevillegas@gmail.com</t>
-  </si>
-  <si>
-    <t>2721066128</t>
-  </si>
-  <si>
-    <t>2721530852</t>
-  </si>
-  <si>
-    <t>2721280070</t>
-  </si>
-  <si>
-    <t>2727225083</t>
-  </si>
-  <si>
-    <t>2723353645</t>
-  </si>
-  <si>
-    <t>2721753370</t>
-  </si>
-  <si>
-    <t>2721750959</t>
-  </si>
-  <si>
-    <t>2727839804</t>
+    <t>ANDRES GARCIA MONTIEL</t>
+  </si>
+  <si>
+    <t>HEIDI AMELIA CAPORAL MORALES</t>
+  </si>
+  <si>
+    <t>JESUS SILVANO HERNANDEZ GARCIA</t>
+  </si>
+  <si>
+    <t>ESPERANZA LIBRADO CORONADA</t>
+  </si>
+  <si>
+    <t>MARCOS LUNA GARCIA</t>
+  </si>
+  <si>
+    <t>ELIZABETH FLORES GARCÍA</t>
+  </si>
+  <si>
+    <t>MARIA LUCRECIA RODRIGUEZ MORENO</t>
+  </si>
+  <si>
+    <t>HECTOR AURELIO MONT SARMIENTO</t>
+  </si>
+  <si>
+    <t>ALMA DELIA FLORES SAN PEDRO</t>
+  </si>
+  <si>
+    <t>ELSA JASMIN PAZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>ASUNCIÓN CASTILLO HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO QUERO RIVERA</t>
+  </si>
+  <si>
+    <t>KATIE MAGDALENA VILLEGAS GARRIDO</t>
+  </si>
+  <si>
+    <t>NATIVIDAD TLAXCALTECA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SOCORRO ARELLANO BERNABE</t>
+  </si>
+  <si>
+    <t>ELENA OLGA CASTRO MELCHOR</t>
+  </si>
+  <si>
+    <t>ANA GABRIELA MONTIEL AGUILAR</t>
+  </si>
+  <si>
+    <t>MARCELA FELICITAS XOTLANIHUA COLOHUA</t>
+  </si>
+  <si>
+    <t>diego123ramirez@icloud.com</t>
+  </si>
+  <si>
+    <t>eushernandez93@gmail.com</t>
+  </si>
+  <si>
+    <t>rousgartzg@gmail.com</t>
+  </si>
+  <si>
+    <t>Gloriapineda8121@gmail.com</t>
+  </si>
+  <si>
+    <t>luxviann1626@gmail.com</t>
+  </si>
+  <si>
+    <t>mariadejesusgonzaleztapia18@gmail.com</t>
+  </si>
+  <si>
+    <t>franciscologan736@gmail.com</t>
+  </si>
+  <si>
+    <t>hildahernandez0011@gmail.com</t>
+  </si>
+  <si>
+    <t>esperanzacoronado795@gmail.com</t>
+  </si>
+  <si>
+    <t>distribuidor.imperio@gmail.com</t>
+  </si>
+  <si>
+    <t>elizabethflores110181@gmail.com</t>
+  </si>
+  <si>
+    <t>montlunah@gmail.com</t>
+  </si>
+  <si>
+    <t>elsajasminpaz@gmail.com</t>
+  </si>
+  <si>
+    <t>asuncast1508@gmail.com</t>
+  </si>
+  <si>
+    <t>fanasa122@gmail.com</t>
+  </si>
+  <si>
+    <t>abrilreyes353@gmail.com</t>
+  </si>
+  <si>
+    <t>socorroarellano410@gmail.com</t>
+  </si>
+  <si>
+    <t>elenaolgac05@hotmail.com</t>
+  </si>
+  <si>
+    <t>anagabrielamontielaguilar@gmil.com</t>
+  </si>
+  <si>
+    <t>marce_felicitas@hotmeil.com</t>
+  </si>
+  <si>
+    <t>2721149969</t>
+  </si>
+  <si>
+    <t>272207941q</t>
+  </si>
+  <si>
+    <t>2721875959</t>
+  </si>
+  <si>
+    <t>2722249426</t>
+  </si>
+  <si>
+    <t>2722973644</t>
+  </si>
+  <si>
+    <t>2721877112</t>
+  </si>
+  <si>
+    <t>2722337781</t>
   </si>
   <si>
     <t>2721349831</t>
-  </si>
-  <si>
-    <t>2711036278</t>
-  </si>
-  <si>
-    <t>2722149982</t>
-  </si>
-  <si>
-    <t>2722600971</t>
-  </si>
-  <si>
-    <t>2721876884</t>
-  </si>
-  <si>
-    <t>2721302392</t>
-  </si>
-  <si>
-    <t>2721000993</t>
-  </si>
-  <si>
-    <t>2721541486</t>
-  </si>
-  <si>
-    <t>2721733764</t>
-  </si>
-  <si>
-    <t>2721585385</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>ENCARNACION</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>LIBRADO</t>
-  </si>
-  <si>
-    <t>MARIN</t>
-  </si>
-  <si>
-    <t>MONT</t>
-  </si>
-  <si>
-    <t>MONTIEL</t>
-  </si>
-  <si>
-    <t>MOSTRANZO</t>
-  </si>
-  <si>
-    <t>QUERO</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>TZOMPAXTLE</t>
-  </si>
-  <si>
-    <t>GARNICA</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>MONTALVO</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
-    <t>CAPORAL</t>
-  </si>
-  <si>
-    <t>CORONADO</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>BRAVO</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>OCHOA</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>TLAXCALTECA</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>KAREN ITZEL</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>SAMANTHA MIA</t>
-  </si>
-  <si>
-    <t>MARIA JOSE</t>
-  </si>
-  <si>
-    <t>DIEGO DE JESUS</t>
-  </si>
-  <si>
-    <t>MARILYN</t>
-  </si>
-  <si>
-    <t>DIANA IRAIS</t>
-  </si>
-  <si>
-    <t>GAEL</t>
-  </si>
-  <si>
-    <t>CRISTIAN FERMIN</t>
-  </si>
-  <si>
-    <t>LOGAN FRANCISCO</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>LIZBETH</t>
-  </si>
-  <si>
-    <t>MARCOS JESUS</t>
-  </si>
-  <si>
-    <t>ZABDIEL</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>PAUL ADRIAN</t>
-  </si>
-  <si>
-    <t>IKER XAVIER</t>
-  </si>
-  <si>
-    <t>THANIA CRISTAL</t>
-  </si>
-  <si>
-    <t>DANIEL OCTAVIO</t>
-  </si>
-  <si>
-    <t>EDWIN YAMIL</t>
-  </si>
-  <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>GABRIELA DENISSE</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>CESAR DANIEL</t>
-  </si>
-  <si>
-    <t>MELANY NARAYANA</t>
-  </si>
-  <si>
-    <t>maricelamartinez99826@gmail.com</t>
-  </si>
-  <si>
-    <t>diego123cast456@gmail.com</t>
-  </si>
-  <si>
-    <t>samanthahernandezcer@gmail.com</t>
-  </si>
-  <si>
-    <t>majoceronb612@gmail.com</t>
-  </si>
-  <si>
-    <t>dcruzgarnica.07@gmail.com</t>
-  </si>
-  <si>
-    <t>marilyndominguezmarcelino@gmail.com</t>
-  </si>
-  <si>
-    <t>iraisencarnacion1@gmail.com</t>
-  </si>
-  <si>
-    <t>die12flo@gmail.com</t>
-  </si>
-  <si>
-    <t>gg7760448@gmail.com</t>
-  </si>
-  <si>
-    <t>joseigmo90@hotmail.com</t>
-  </si>
-  <si>
-    <t>logan280405@hotmail.com</t>
-  </si>
-  <si>
-    <t>silvanohernandez0011@gmail.com</t>
-  </si>
-  <si>
-    <t>libradolizbeth3@gmail.com</t>
-  </si>
-  <si>
-    <t>lunamariamarcosjesus48@gmail.com</t>
-  </si>
-  <si>
-    <t>mzabdiel519@gmail.com</t>
-  </si>
-  <si>
-    <t>rlucrecia676@gmail.com</t>
-  </si>
-  <si>
-    <t>pauladrianmont633@gmail.com</t>
-  </si>
-  <si>
-    <t>alyxamonti.98@gmail.com</t>
-  </si>
-  <si>
-    <t>min296579@gmail.com</t>
-  </si>
-  <si>
-    <t>asuncast1508@hotmail.com</t>
-  </si>
-  <si>
-    <t>florserrano984@gmail.com</t>
-  </si>
-  <si>
-    <t>ramosfati68@gmail.com</t>
-  </si>
-  <si>
-    <t>marianareyes031202@gmail.com</t>
-  </si>
-  <si>
-    <t>gabideniss07@gmail.com</t>
-  </si>
-  <si>
-    <t>mariadelcarmentrujillo1607@gmail.com</t>
-  </si>
-  <si>
-    <t>anagabrielamontielaguilar@gmail.com</t>
-  </si>
-  <si>
-    <t>melaniex0814@gmail.com</t>
-  </si>
-  <si>
-    <t>2722111112</t>
-  </si>
-  <si>
-    <t>2722455801</t>
-  </si>
-  <si>
-    <t>2721697190</t>
-  </si>
-  <si>
-    <t>2722252713</t>
-  </si>
-  <si>
-    <t>7731368044</t>
-  </si>
-  <si>
-    <t>2721970646</t>
-  </si>
-  <si>
-    <t>2722110064</t>
-  </si>
-  <si>
-    <t>2721917796</t>
-  </si>
-  <si>
-    <t>2721092960</t>
-  </si>
-  <si>
-    <t>2722305796</t>
-  </si>
-  <si>
-    <t>2722819551</t>
-  </si>
-  <si>
-    <t>2722193643</t>
-  </si>
-  <si>
-    <t>2727016334</t>
-  </si>
-  <si>
-    <t>2722835620</t>
-  </si>
-  <si>
-    <t>2721060211</t>
-  </si>
-  <si>
-    <t>2722031552</t>
-  </si>
-  <si>
-    <t>2225185683</t>
-  </si>
-  <si>
-    <t>2722335321</t>
-  </si>
-  <si>
-    <t>2723033654</t>
-  </si>
-  <si>
-    <t>2721981105</t>
-  </si>
-  <si>
-    <t>2722626380</t>
-  </si>
-  <si>
-    <t>2723560444</t>
-  </si>
-  <si>
-    <t>2723352208</t>
-  </si>
-  <si>
-    <t>2722823423</t>
-  </si>
-  <si>
-    <t>2723357672</t>
-  </si>
-  <si>
-    <t>2723034076</t>
-  </si>
-  <si>
-    <t>2722285437</t>
-  </si>
-  <si>
-    <t>2722174419</t>
-  </si>
-  <si>
-    <t>2721713031</t>
-  </si>
-  <si>
-    <t>2722264241</t>
-  </si>
-  <si>
-    <t>2722605467</t>
-  </si>
-  <si>
-    <t>2721710203</t>
-  </si>
-  <si>
-    <t>2721330710</t>
-  </si>
-  <si>
-    <t>2721060807</t>
-  </si>
-  <si>
-    <t>2721682361</t>
-  </si>
-  <si>
-    <t>2727210370</t>
-  </si>
-  <si>
-    <t>2722018661</t>
-  </si>
-  <si>
-    <t>2721712088</t>
-  </si>
-  <si>
-    <t>ANDRES BARRAGAN SANTOS</t>
-  </si>
-  <si>
-    <t>MARIA RAMÍREZ RAMÍREZ</t>
-  </si>
-  <si>
-    <t>EUSTOLIA HERNANDEZ SUAREZ</t>
-  </si>
-  <si>
-    <t>ROSA TZOMPAXTLE CERÓN</t>
-  </si>
-  <si>
-    <t>GLORIA PINEDA GARCÍA</t>
-  </si>
-  <si>
-    <t>LUZ VIANNEY MARCELINO VAZQUEZ</t>
-  </si>
-  <si>
-    <t>GLADIS ALEJANDRA MONTAVO CHACÓN</t>
-  </si>
-  <si>
-    <t>SARA VILLA LUNA</t>
-  </si>
-  <si>
-    <t>MARÍA DE JESÚS GONZÁLEZ TAPÍA</t>
-  </si>
-  <si>
-    <t>ANDRES GARCIA MONTIEL</t>
-  </si>
-  <si>
-    <t>HEIDI AMELIA CAPORAL MORALES</t>
-  </si>
-  <si>
-    <t>JESUS SILVANO HERNANDEZ GARCIA</t>
-  </si>
-  <si>
-    <t>ESPERANZA LIBRADO CORONADA</t>
-  </si>
-  <si>
-    <t>MARCOS LUNA GARCIA</t>
-  </si>
-  <si>
-    <t>ELIZABETH FLORES GARCÍA</t>
-  </si>
-  <si>
-    <t>MARIA LUCRECIA RODRIGUEZ MORENO</t>
-  </si>
-  <si>
-    <t>HECTOR AURELIO MONT SARMIENTO</t>
-  </si>
-  <si>
-    <t>ALMA DELIA FLORES SAN PEDRO</t>
-  </si>
-  <si>
-    <t>ELSA JASMIN PAZ GONZALEZ</t>
-  </si>
-  <si>
-    <t>ASUNCIÓN CASTILLO HERNÁNDEZ</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO QUERO RIVERA</t>
-  </si>
-  <si>
-    <t>KATIE MAGDALENA VILLEGAS GARRIDO</t>
-  </si>
-  <si>
-    <t>NATIVIDAD TLAXCALTECA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SOCORRO ARELLANO BERNABE</t>
-  </si>
-  <si>
-    <t>ELENA OLGA CASTRO MELCHOR</t>
-  </si>
-  <si>
-    <t>ANA GABRIELA MONTIEL AGUILAR</t>
-  </si>
-  <si>
-    <t>MARCELA FELICITAS XOTLANIHUA COLOHUA</t>
-  </si>
-  <si>
-    <t>diego123ramirez@icloud.com</t>
-  </si>
-  <si>
-    <t>eushernandez93@gmail.com</t>
-  </si>
-  <si>
-    <t>rousgartzg@gmail.com</t>
-  </si>
-  <si>
-    <t>Gloriapineda8121@gmail.com</t>
-  </si>
-  <si>
-    <t>luxviann1626@gmail.com</t>
-  </si>
-  <si>
-    <t>mariadejesusgonzaleztapia18@gmail.com</t>
-  </si>
-  <si>
-    <t>franciscologan736@gmail.com</t>
-  </si>
-  <si>
-    <t>hildahernandez0011@gmail.com</t>
-  </si>
-  <si>
-    <t>esperanzacoronado795@gmail.com</t>
-  </si>
-  <si>
-    <t>distribuidor.imperio@gmail.com</t>
-  </si>
-  <si>
-    <t>elizabethflores110181@gmail.com</t>
-  </si>
-  <si>
-    <t>montlunah@gmail.com</t>
-  </si>
-  <si>
-    <t>elsajasminpaz@gmail.com</t>
-  </si>
-  <si>
-    <t>asuncast1508@gmail.com</t>
-  </si>
-  <si>
-    <t>fanasa122@gmail.com</t>
-  </si>
-  <si>
-    <t>abrilreyes353@gmail.com</t>
-  </si>
-  <si>
-    <t>socorroarellano410@gmail.com</t>
-  </si>
-  <si>
-    <t>elenaolgac05@hotmail.com</t>
-  </si>
-  <si>
-    <t>anagabrielamontielaguilar@gmil.com</t>
-  </si>
-  <si>
-    <t>marce_felicitas@hotmeil.com</t>
-  </si>
-  <si>
-    <t>2721149969</t>
-  </si>
-  <si>
-    <t>272207941q</t>
-  </si>
-  <si>
-    <t>2721875959</t>
-  </si>
-  <si>
-    <t>2722249426</t>
-  </si>
-  <si>
-    <t>2722973644</t>
-  </si>
-  <si>
-    <t>2721877112</t>
-  </si>
-  <si>
-    <t>2722337781</t>
   </si>
   <si>
     <t>2721428630</t>
@@ -1563,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1627,19 +1627,19 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1659,19 +1659,19 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1691,16 +1691,16 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1720,19 +1720,19 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1752,19 +1752,19 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1784,22 +1784,22 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1819,22 +1819,22 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1854,22 +1854,22 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1889,22 +1889,22 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1912,31 +1912,28 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>21330051920120</v>
+        <v>21330051920340</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1944,28 +1941,31 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>21330051920340</v>
+        <v>21330051920341</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1973,31 +1973,34 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>21330051920341</v>
+        <v>21330051920342</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="I13" t="s">
+        <v>176</v>
       </c>
       <c r="J13" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -2005,95 +2008,92 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>21330051920342</v>
+        <v>21330051920343</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="H14" t="s">
-        <v>160</v>
-      </c>
-      <c r="I14" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>21330051920343</v>
+        <v>21330051920344</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="I15" t="s">
+        <v>177</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>21330051920344</v>
+        <v>21330051920345</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -2101,31 +2101,31 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>21330051920345</v>
+        <v>21330051920346</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
         <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>119</v>
+        <v>196</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2133,63 +2133,66 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>21330051920346</v>
+        <v>21330051920347</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>21330051920347</v>
+        <v>21330051920348</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="G19" t="s">
+        <v>138</v>
       </c>
       <c r="H19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2197,34 +2200,31 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>21330051920348</v>
+        <v>21330051920349</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="H20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2232,95 +2232,98 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>21330051920349</v>
+        <v>21330051920350</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
         <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>21330051920350</v>
+        <v>21330051920149</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="G22" t="s">
+        <v>139</v>
       </c>
       <c r="H22" t="s">
-        <v>168</v>
-      </c>
-      <c r="I22" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>21330051920149</v>
+        <v>21330051920351</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H23" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2328,63 +2331,63 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>21330051920351</v>
+        <v>21330051920322</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H24" t="s">
-        <v>170</v>
-      </c>
-      <c r="I24" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="J24" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>21330051920322</v>
+        <v>21330051920174</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H25" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="I25" t="s">
+        <v>100</v>
       </c>
       <c r="J25" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -2392,138 +2395,103 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>21330051920174</v>
+        <v>21330051920352</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="J26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>21330051920352</v>
+        <v>21330051920353</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
         <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G27" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>21330051920353</v>
+        <v>21330051920354</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
         <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I28" t="s">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="J28" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="K28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29">
-        <v>21330051920354</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" t="s">
-        <v>130</v>
-      </c>
-      <c r="H29" t="s">
-        <v>175</v>
-      </c>
-      <c r="I29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" t="s">
-        <v>207</v>
-      </c>
-      <c r="K29">
         <v>1</v>
       </c>
     </row>
@@ -2534,7 +2502,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2589,28 +2557,28 @@
         <v>21330051920111</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -2627,22 +2595,22 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -2653,31 +2621,31 @@
         <v>21330051920113</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -2688,28 +2656,28 @@
         <v>21330051920114</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -2720,31 +2688,31 @@
         <v>21330051920115</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -2758,25 +2726,25 @@
         <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -2787,25 +2755,25 @@
         <v>21330051920117</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -2819,25 +2787,25 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -2854,22 +2822,22 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -2877,34 +2845,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>21330051920121</v>
+        <v>21330051920120</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E11" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H11" t="s">
-        <v>340</v>
-      </c>
-      <c r="I11" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="J11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -2912,31 +2877,34 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>21330051920391</v>
+        <v>21330051920121</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F12" t="s">
-        <v>302</v>
+        <v>298</v>
+      </c>
+      <c r="G12" t="s">
+        <v>322</v>
       </c>
       <c r="H12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I12" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
       <c r="J12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -2944,34 +2912,31 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>21330051920122</v>
+        <v>21330051920391</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E13" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F13" t="s">
-        <v>303</v>
-      </c>
-      <c r="G13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J13" t="s">
-        <v>303</v>
+        <v>386</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -2979,34 +2944,34 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>21330051920123</v>
+        <v>21330051920122</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E14" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J14" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -3014,34 +2979,34 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>21330051920124</v>
+        <v>21330051920123</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D15" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E15" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G15" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="H15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -3049,34 +3014,34 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>21330051920125</v>
+        <v>21330051920124</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E16" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F16" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G16" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J16" t="s">
-        <v>306</v>
+        <v>388</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -3084,34 +3049,34 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>21330051920126</v>
+        <v>21330051920125</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E17" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I17" t="s">
-        <v>281</v>
+        <v>367</v>
       </c>
       <c r="J17" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -3119,267 +3084,270 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>21330051920127</v>
+        <v>21330051920126</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E18" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I18" t="s">
-        <v>369</v>
+        <v>277</v>
       </c>
       <c r="J18" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20330051920275</v>
+        <v>21330051920127</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="D19" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E19" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F19" t="s">
-        <v>309</v>
+        <v>305</v>
+      </c>
+      <c r="G19" t="s">
+        <v>326</v>
       </c>
       <c r="H19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I19" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="J19" t="s">
-        <v>309</v>
+        <v>389</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>21330051920128</v>
+        <v>20330051920275</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E20" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F20" t="s">
-        <v>310</v>
-      </c>
-      <c r="G20" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="H20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I20" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="J20" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>21330051920129</v>
+        <v>21330051920128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>212</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D21" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E21" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G21" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="H21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>21330051920130</v>
-      </c>
-      <c r="B22" t="s">
-        <v>219</v>
+        <v>21330051920129</v>
       </c>
       <c r="C22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E22" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F22" t="s">
-        <v>312</v>
+        <v>308</v>
+      </c>
+      <c r="G22" t="s">
+        <v>308</v>
       </c>
       <c r="H22" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I22" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
       <c r="J22" t="s">
-        <v>390</v>
+        <v>308</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>21330051920131</v>
+        <v>21330051920130</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E23" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F23" t="s">
-        <v>313</v>
-      </c>
-      <c r="G23" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="H23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I23" t="s">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="J23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>18330051920377</v>
+        <v>21330051920131</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="C24" t="s">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E24" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F24" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G24" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="H24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I24" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>21330051920132</v>
+        <v>18330051920377</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E25" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F25" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="G25" t="s">
+        <v>311</v>
       </c>
       <c r="H25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3387,100 +3355,132 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>20330051920152</v>
+        <v>21330051920132</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E26" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F26" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H26" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I26" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>21330051920133</v>
+        <v>20330051920152</v>
       </c>
       <c r="B27" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C27" t="s">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E27" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F27" t="s">
-        <v>317</v>
-      </c>
-      <c r="G27" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H27" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I27" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
+        <v>21330051920133</v>
+      </c>
+      <c r="B28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" t="s">
+        <v>287</v>
+      </c>
+      <c r="F28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G28" t="s">
+        <v>314</v>
+      </c>
+      <c r="H28" t="s">
+        <v>355</v>
+      </c>
+      <c r="I28" t="s">
+        <v>375</v>
+      </c>
+      <c r="J28" t="s">
+        <v>395</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
         <v>21330051920134</v>
       </c>
-      <c r="B28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C28" t="s">
-        <v>239</v>
-      </c>
-      <c r="D28" t="s">
-        <v>265</v>
-      </c>
-      <c r="E28" t="s">
-        <v>292</v>
-      </c>
-      <c r="F28" t="s">
-        <v>318</v>
-      </c>
-      <c r="H28" t="s">
-        <v>357</v>
-      </c>
-      <c r="I28" t="s">
-        <v>377</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="B29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D29" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" t="s">
+        <v>288</v>
+      </c>
+      <c r="F29" t="s">
+        <v>315</v>
+      </c>
+      <c r="H29" t="s">
+        <v>356</v>
+      </c>
+      <c r="I29" t="s">
+        <v>376</v>
+      </c>
+      <c r="J29" t="s">
         <v>396</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>1</v>
       </c>
     </row>

--- a/De Jesús Orduña Sofía del Pilar 20212.xlsx
+++ b/De Jesús Orduña Sofía del Pilar 20212.xlsx
@@ -1872,7 +1872,7 @@
         <v>191</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
